--- a/50item_tests/result_solve1_solve3.xlsx
+++ b/50item_tests/result_solve1_solve3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rard6\Documents\修士\実験\50item_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A3A16-4020-4EE4-B4C0-470AB7A91947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE0C91D-5C21-47C3-A596-88C1AED22AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3F68E93B-15D7-4287-8D9E-34CC60144EA3}"/>
+    <workbookView xWindow="-14490" yWindow="420" windowWidth="14340" windowHeight="15060" xr2:uid="{3F68E93B-15D7-4287-8D9E-34CC60144EA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -217,19 +217,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +266,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,19 +287,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,7 +616,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -595,11 +625,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -608,375 +638,375 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>136</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>156</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>141</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="14">
         <v>110</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="15">
         <v>139</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="15">
         <v>124</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="15">
         <v>101</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="15">
         <v>131</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="15">
         <v>107</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="7">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="15">
         <v>98</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="15">
         <v>122</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="15">
         <v>92</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="7">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>102</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>114</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>90</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>162</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>197</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>169</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="14">
         <v>128</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="15">
         <v>165</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="15">
         <v>135</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="7">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="15">
         <v>116</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="15">
         <v>143</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="15">
         <v>113</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="7">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="15">
         <v>107</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="15">
         <v>136</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="15">
         <v>102</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="7">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>97</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>131</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>96</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>174</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>202</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>180</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="9">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="15">
         <v>145</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="15">
         <v>166</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="15">
         <v>145</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="15">
         <v>132</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="15">
         <v>150</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="15">
         <v>128</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3">
         <v>6</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="15">
         <v>129</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="15">
         <v>140</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="15">
         <v>121</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="7">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6">
+      <c r="A16" s="12"/>
+      <c r="B16" s="5">
         <v>7</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>125</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>135</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>110</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="8">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>379</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>411</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>373</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="9">
         <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="15">
         <v>301</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="15">
         <v>335</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="14">
         <v>290</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="7">
         <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="15">
         <v>247</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="15">
         <v>299</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="14">
         <v>239</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="7">
         <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="3">
         <v>6</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="15">
         <v>207</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="15">
         <v>265</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="15">
         <v>214</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="7">
         <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="6">
+      <c r="A21" s="12"/>
+      <c r="B21" s="5">
         <v>7</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>199</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>257</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>187</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="8">
         <v>179</v>
       </c>
     </row>
